--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.031721-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.031721-2.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2063,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2327,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2593,12 +2593,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2935,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2973,12 +2973,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3047,12 +3047,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3615,12 +3615,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3803,12 +3803,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4675,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4825,12 +4825,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5049,12 +5049,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5237,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5387,12 +5387,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5539,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6563,12 +6563,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6905,12 +6905,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7327,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7403,12 +7403,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7669,12 +7669,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8661,12 +8661,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8813,12 +8813,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8851,12 +8851,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8927,12 +8927,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9003,12 +9003,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9307,12 +9307,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9383,12 +9383,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10033,12 +10033,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10337,12 +10337,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10565,12 +10565,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10603,12 +10603,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10641,12 +10641,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10717,12 +10717,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11249,12 +11249,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11477,12 +11477,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11515,12 +11515,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11667,12 +11667,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12275,12 +12275,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12541,12 +12541,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12805,12 +12805,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13185,12 +13185,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13223,12 +13223,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13565,12 +13565,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13793,12 +13793,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13907,12 +13907,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
